--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1234,34 +1189,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>163</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1274,36 +1202,9 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>400</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>104</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>163</v>
-      </c>
-      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1314,39 +1215,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>400</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>163</v>
-      </c>
-      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1615,34 +1489,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>29.25311702887468</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1692,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>47.78312417100297</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1939,28 +1813,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3.253117028874681</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -2016,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>47.78312417100296</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>9.048520000000069</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>189.4909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>182.9252525252525</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>169.7939393939394</v>
+        <v>156.6626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.5313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>143.27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>171.584</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>192.176</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>215.342</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>261.674</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>323.45</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>392.948</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>470.168</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>531.944</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>585.9979999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>632.3300000000002</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>650.3480000000002</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>641.2080808080809</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>609.6929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>491.5111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>393.0262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>314.2383838383839</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>261.7131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>222.3191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>169.7939393939394</v>
+        <v>182.9252525252525</v>
       </c>
       <c r="C3" t="n">
         <v>163.2282828282828</v>
@@ -2572,67 +2446,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>192.176</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>274.544</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>274.544</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>354.338</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>410.966</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.038</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.038</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>486.2585858585859</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>486.2585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>465.2484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>215.7535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>156.6626262626263</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="C4" t="n">
         <v>150.0969696969697</v>
@@ -2649,67 +2523,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>140.696</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>181.88</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>253.952</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>253.952</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>301.2572929292929</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>301.2572929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>342.441292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>363.0332929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>202.6222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3509,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.351479999999933</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76326.84612800002</v>
+        <v>76271.06239999998</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9318.849550950723</v>
+        <v>9300.638068405267</v>
       </c>
       <c r="E2" t="n">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="F2" t="n">
-        <v>38237.84738944247</v>
+        <v>38337.2076127313</v>
       </c>
     </row>
   </sheetData>
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>50.43636363636378</v>
       </c>
       <c r="S2" t="n">
         <v>31.2</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
         <v>62.4</v>
@@ -1498,22 +1498,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>83.2</v>
+        <v>44.8531170288747</v>
       </c>
       <c r="O3" t="n">
         <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
-        <v>29.25311702887468</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
         <v>20.8</v>
@@ -1572,13 +1572,13 @@
         <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>83.2</v>
       </c>
       <c r="N4" t="n">
-        <v>47.78312417100297</v>
+        <v>81.58312417100301</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>41.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>10.4</v>
@@ -1760,7 +1760,7 @@
         <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>16.63636363636378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
         <v>62.4</v>
@@ -1822,22 +1822,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>57.2</v>
+        <v>18.8531170288747</v>
       </c>
       <c r="O3" t="n">
         <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.253117028874681</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1896,13 +1896,13 @@
         <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>59.8</v>
       </c>
       <c r="N4" t="n">
-        <v>47.78312417100296</v>
+        <v>81.58312417100301</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>41.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>10.4</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>9.048520000000069</v>
+        <v>10.4</v>
       </c>
       <c r="T2" t="n">
-        <v>31.2</v>
+        <v>28.31599999999998</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>189.4909090909091</v>
+        <v>188.6909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7939393939394</v>
+        <v>168.9939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>156.6626262626263</v>
+        <v>155.8626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>143.5313131313131</v>
+        <v>142.7313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>130.4</v>
+        <v>129.6</v>
       </c>
       <c r="G2" t="n">
-        <v>143.27</v>
+        <v>142.47</v>
       </c>
       <c r="H2" t="n">
-        <v>171.584</v>
+        <v>170.784</v>
       </c>
       <c r="I2" t="n">
-        <v>192.176</v>
+        <v>191.376</v>
       </c>
       <c r="J2" t="n">
-        <v>215.342</v>
+        <v>214.542</v>
       </c>
       <c r="K2" t="n">
-        <v>261.674</v>
+        <v>260.874</v>
       </c>
       <c r="L2" t="n">
-        <v>323.45</v>
+        <v>322.65</v>
       </c>
       <c r="M2" t="n">
-        <v>392.948</v>
+        <v>392.148</v>
       </c>
       <c r="N2" t="n">
-        <v>470.168</v>
+        <v>469.3679999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>531.944</v>
+        <v>531.1439999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>585.9979999999999</v>
+        <v>585.1979999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>632.3300000000002</v>
+        <v>631.5299999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>650.3480000000002</v>
+        <v>648</v>
       </c>
       <c r="S2" t="n">
-        <v>641.2080808080809</v>
+        <v>637.4949494949495</v>
       </c>
       <c r="T2" t="n">
-        <v>609.6929292929294</v>
+        <v>608.8929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>491.5111111111111</v>
+        <v>490.7111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>393.0262626262627</v>
+        <v>392.2262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>314.2383838383839</v>
+        <v>313.4383838383839</v>
       </c>
       <c r="X2" t="n">
-        <v>261.7131313131313</v>
+        <v>260.9131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>222.3191919191919</v>
+        <v>221.5191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.9252525252525</v>
+        <v>182.1252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>163.2282828282828</v>
+        <v>162.4282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>150.0969696969697</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0969696969697</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>150.0969696969697</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4</v>
+        <v>129.6</v>
       </c>
       <c r="H3" t="n">
-        <v>130.4</v>
+        <v>129.6</v>
       </c>
       <c r="I3" t="n">
-        <v>130.4</v>
+        <v>170.784</v>
       </c>
       <c r="J3" t="n">
-        <v>192.176</v>
+        <v>232.56</v>
       </c>
       <c r="K3" t="n">
-        <v>274.544</v>
+        <v>314.928</v>
       </c>
       <c r="L3" t="n">
-        <v>274.544</v>
+        <v>314.928</v>
       </c>
       <c r="M3" t="n">
-        <v>354.338</v>
+        <v>314.928</v>
       </c>
       <c r="N3" t="n">
-        <v>410.966</v>
+        <v>333.5925858585859</v>
       </c>
       <c r="O3" t="n">
-        <v>483.038</v>
+        <v>405.664585858586</v>
       </c>
       <c r="P3" t="n">
-        <v>483.038</v>
+        <v>428.8305858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>486.2585858585859</v>
+        <v>454.570585858586</v>
       </c>
       <c r="R3" t="n">
-        <v>486.2585858585859</v>
+        <v>485.4585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>465.2484848484848</v>
+        <v>464.4484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>333.9353535353536</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>333.9353535353536</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>333.9353535353536</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>255.1474747474747</v>
+        <v>254.3474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>255.1474747474747</v>
+        <v>254.3474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>215.7535353535353</v>
+        <v>214.9535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>169.7939393939394</v>
+        <v>168.9939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>150.0969696969697</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>150.0969696969697</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>150.0969696969697</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>150.0969696969697</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4</v>
+        <v>129.6</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4</v>
+        <v>129.6</v>
       </c>
       <c r="I4" t="n">
-        <v>130.4</v>
+        <v>129.6</v>
       </c>
       <c r="J4" t="n">
-        <v>140.696</v>
+        <v>139.896</v>
       </c>
       <c r="K4" t="n">
-        <v>181.88</v>
+        <v>181.08</v>
       </c>
       <c r="L4" t="n">
-        <v>253.952</v>
+        <v>181.08</v>
       </c>
       <c r="M4" t="n">
-        <v>253.952</v>
+        <v>240.282</v>
       </c>
       <c r="N4" t="n">
-        <v>301.2572929292929</v>
+        <v>321.049292929293</v>
       </c>
       <c r="O4" t="n">
-        <v>301.2572929292929</v>
+        <v>321.049292929293</v>
       </c>
       <c r="P4" t="n">
-        <v>342.441292929293</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>363.0332929292929</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>373.3292929292929</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>373.3292929292929</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>242.0161616161616</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>242.0161616161616</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>242.0161616161616</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>242.0161616161616</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>242.0161616161616</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6222222222222</v>
+        <v>201.8222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.884000000000018</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.351479999999933</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76271.06239999998</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9300.638068405267</v>
+        <v>7066.221906540153</v>
       </c>
       <c r="E2" t="n">
-        <v>2370</v>
+        <v>900</v>
       </c>
       <c r="F2" t="n">
-        <v>38337.2076127313</v>
+        <v>41198.84281743204</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50.43636363636378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>44.8531170288747</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>81.58312417100301</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,43 +1727,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>58.63427201306113</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.4</v>
+        <v>19.5</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>150</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16.63636363636378</v>
+        <v>14.9</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1810,37 +1810,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>41.33079277624776</v>
       </c>
       <c r="N3" t="n">
-        <v>18.8531170288747</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>70</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>115.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>81.58312417100301</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.6</v>
+        <v>145.3831241710019</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>28.31599999999998</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.6909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>168.9939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>155.8626262626263</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>142.7313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>142.47</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>170.784</v>
+        <v>228.2409292929305</v>
       </c>
       <c r="I2" t="n">
-        <v>191.376</v>
+        <v>228.2409292929305</v>
       </c>
       <c r="J2" t="n">
-        <v>214.542</v>
+        <v>247.5459292929305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.874</v>
+        <v>247.5459292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>322.65</v>
+        <v>247.5459292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>392.148</v>
+        <v>247.5459292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>469.3679999999999</v>
+        <v>396.0459292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>531.1439999999999</v>
+        <v>544.5459292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>585.1979999999999</v>
+        <v>544.5459292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>631.5299999999999</v>
+        <v>544.5459292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>648</v>
+        <v>559.2969292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>637.4949494949495</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>608.8929292929294</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>490.7111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>392.2262626262627</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>313.4383838383839</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>260.9131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.5191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.1252525252525</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>162.4282828282828</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>170.784</v>
+        <v>120</v>
       </c>
       <c r="J3" t="n">
-        <v>232.56</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>314.928</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
-        <v>314.928</v>
+        <v>120</v>
       </c>
       <c r="M3" t="n">
-        <v>314.928</v>
+        <v>160.9174848484853</v>
       </c>
       <c r="N3" t="n">
-        <v>333.5925858585859</v>
+        <v>160.9174848484853</v>
       </c>
       <c r="O3" t="n">
-        <v>405.664585858586</v>
+        <v>230.2174848484853</v>
       </c>
       <c r="P3" t="n">
-        <v>428.8305858585859</v>
+        <v>344.9584848484853</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.570585858586</v>
+        <v>367.7284848484853</v>
       </c>
       <c r="R3" t="n">
-        <v>485.4585858585859</v>
+        <v>397.4284848484853</v>
       </c>
       <c r="S3" t="n">
-        <v>464.4484848484849</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>333.1353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>333.1353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>333.1353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>254.3474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>254.3474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.9535353535353</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.9939393939394</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>139.896</v>
+        <v>129.9</v>
       </c>
       <c r="K4" t="n">
-        <v>181.08</v>
+        <v>129.9</v>
       </c>
       <c r="L4" t="n">
-        <v>181.08</v>
+        <v>129.9</v>
       </c>
       <c r="M4" t="n">
-        <v>240.282</v>
+        <v>129.9</v>
       </c>
       <c r="N4" t="n">
-        <v>321.049292929293</v>
+        <v>129.9</v>
       </c>
       <c r="O4" t="n">
-        <v>321.049292929293</v>
+        <v>129.9</v>
       </c>
       <c r="P4" t="n">
-        <v>362.2332929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.2332929292929</v>
+        <v>333.2292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>372.5292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>372.5292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8222222222222</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>32.13427201306111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.884000000000018</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>64.73079277624771</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>145.3831241710019</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -3347,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3368,25 +3368,25 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3445,22 +3445,22 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3683,19 +3683,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3855,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>77388.66797673714</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540153</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>900</v>
+        <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>41198.84281743204</v>
+        <v>38945.6536412876</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>58.63427201306113</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>132.0342720130611</v>
       </c>
       <c r="R2" t="n">
-        <v>14.9</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>40.4</v>
+        <v>32.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>45.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.43079277624771</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>41.33079277624776</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>70</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>115.9</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>145.3831241710019</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>228.2409292929305</v>
+        <v>197.715</v>
       </c>
       <c r="I2" t="n">
-        <v>228.2409292929305</v>
+        <v>200.487</v>
       </c>
       <c r="J2" t="n">
-        <v>247.5459292929305</v>
+        <v>202.269</v>
       </c>
       <c r="K2" t="n">
-        <v>247.5459292929305</v>
+        <v>223.653</v>
       </c>
       <c r="L2" t="n">
-        <v>247.5459292929305</v>
+        <v>256.917</v>
       </c>
       <c r="M2" t="n">
-        <v>247.5459292929305</v>
+        <v>294.3389999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>396.0459292929305</v>
+        <v>335.9189999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>544.5459292929305</v>
+        <v>365.6189999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>544.5459292929305</v>
+        <v>391.1609999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>544.5459292929305</v>
+        <v>521.8749292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>559.2969292929305</v>
+        <v>522.0729292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>554.1489292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,34 +2783,34 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>120</v>
+        <v>147.1564848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>187.5484848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>120</v>
+        <v>241.4044848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>120</v>
+        <v>301.9924848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>160.9174848484853</v>
+        <v>346.1464848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>160.9174848484853</v>
+        <v>374.2624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>230.2174848484853</v>
+        <v>421.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>344.9584848484853</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>367.7284848484853</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>397.4284848484853</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>129.9</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>129.9</v>
+        <v>146.928</v>
       </c>
       <c r="L4" t="n">
-        <v>129.9</v>
+        <v>194.052</v>
       </c>
       <c r="M4" t="n">
-        <v>129.9</v>
+        <v>224.742</v>
       </c>
       <c r="N4" t="n">
-        <v>129.9</v>
+        <v>278.598</v>
       </c>
       <c r="O4" t="n">
-        <v>129.9</v>
+        <v>325.722</v>
       </c>
       <c r="P4" t="n">
-        <v>273.8292929292919</v>
+        <v>352.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>333.2292929292918</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>32.13427201306111</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>110.4342720130611</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2307927762477106</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>64.73079277624771</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>145.3831241710019</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3693,22 +3693,22 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4008,19 +4008,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>92.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>95.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>33.6</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1770</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
-        <v>38945.65364128757</v>
+        <v>-89.0176992087838</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2144,28 +1894,28 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.583124171001832</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>132.7342720130611</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>41.03079277624771</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2468,28 +2218,28 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.583124171001832</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>125.742</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>274.242</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>277.014</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>278.796</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>410.2029292929304</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>443.4669292929304</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>480.8889292929304</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.4689292929304</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>552.1689292929304</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>577.7109292929305</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>599.0949292929305</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>146.928</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187.5484848484852</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>241.4044848484852</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9924848484852</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>346.1464848484852</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>374.2624848484852</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>421.3864848484852</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>146.928</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>194.052</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>224.742</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>278.598</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>325.722</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>352.65</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>356.1972929292918</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3601,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>135.8</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3610,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>111.1342720130611</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3637,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3684,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2307927762477107</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3958,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4035,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4285,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4359,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.66797673714</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>150</v>
+        <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>-89.0176992087838</v>
+        <v>38945.6536412876</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>132.0342720130611</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>32.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>45.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.43079277624771</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2218,25 +2218,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>197.715</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>200.487</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>202.269</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>223.653</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>256.917</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>294.3389999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>335.9189999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>365.6189999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>391.1609999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>521.8749292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>522.0729292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>554.1489292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>147.1564848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>187.5484848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>241.4044848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>301.9924848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>346.1464848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>374.2624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>421.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>146.928</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>194.052</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>224.742</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>278.598</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>325.722</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>352.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>110.4342720130611</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2307927762477106</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673714</v>
+        <v>77388.66797673712</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>14091.39863177228</v>
       </c>
       <c r="E2" t="n">
-        <v>1770</v>
+        <v>900</v>
       </c>
       <c r="F2" t="n">
-        <v>38945.6536412876</v>
+        <v>37029.74235999697</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>130.2342720130611</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>150</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>150</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.0342720130611</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>19.9</v>
       </c>
       <c r="S2" t="n">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>45.6</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.43079277624771</v>
+        <v>21.93079277624766</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>66</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>88</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>93</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>11.38312417100181</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>248.9319292929305</v>
       </c>
       <c r="H2" t="n">
-        <v>197.715</v>
+        <v>397.4319292929305</v>
       </c>
       <c r="I2" t="n">
-        <v>200.487</v>
+        <v>397.4319292929305</v>
       </c>
       <c r="J2" t="n">
-        <v>202.269</v>
+        <v>397.4319292929305</v>
       </c>
       <c r="K2" t="n">
-        <v>223.653</v>
+        <v>545.9319292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>256.917</v>
+        <v>545.9319292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>294.3389999999999</v>
+        <v>545.9319292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>335.9189999999999</v>
+        <v>545.9319292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>365.6189999999999</v>
+        <v>545.9319292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>391.1609999999999</v>
+        <v>545.9319292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>521.8749292929305</v>
+        <v>545.9319292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>522.0729292929304</v>
+        <v>565.6329292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>554.1489292929305</v>
+        <v>565.6329292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>147.1564848484852</v>
+        <v>141.7114848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>187.5484848484852</v>
+        <v>207.0514848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>241.4044848484852</v>
+        <v>294.1714848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9924848484852</v>
+        <v>303.0814848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>346.1464848484852</v>
+        <v>303.0814848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>374.2624848484852</v>
+        <v>303.0814848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>421.3864848484852</v>
+        <v>310.0114848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>335.0584848484853</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>362.7784848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>201.18</v>
       </c>
       <c r="K4" t="n">
-        <v>146.928</v>
+        <v>205.14</v>
       </c>
       <c r="L4" t="n">
-        <v>194.052</v>
+        <v>212.07</v>
       </c>
       <c r="M4" t="n">
-        <v>224.742</v>
+        <v>212.07</v>
       </c>
       <c r="N4" t="n">
-        <v>278.598</v>
+        <v>219.99</v>
       </c>
       <c r="O4" t="n">
-        <v>325.722</v>
+        <v>226.92</v>
       </c>
       <c r="P4" t="n">
-        <v>352.65</v>
+        <v>270.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.9292929292918</v>
+        <v>281.7492929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3348,10 +3348,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>77.53427201306107</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>119.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.4342720130611</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2307927762477106</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3702,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3755,34 +3755,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>17.93079277624766</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3853,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>9.383124171001812</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4011,19 +4011,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>10.2</v>
       </c>
       <c r="T2" t="n">
         <v>32</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>21.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673712</v>
+        <v>80569.87555147437</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>14091.39863177228</v>
+        <v>15404.58112947659</v>
       </c>
       <c r="E2" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F2" t="n">
-        <v>37029.74235999697</v>
+        <v>37900.94379158544</v>
       </c>
     </row>
   </sheetData>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>130.2342720130611</v>
+        <v>24.1</v>
       </c>
       <c r="H2" t="n">
-        <v>150</v>
+        <v>54.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="K2" t="n">
-        <v>150</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>137.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.672278338946343</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>102.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>19.9</v>
+        <v>24.5</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21.93079277624766</v>
+        <v>19.2</v>
       </c>
       <c r="J3" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>20.1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>14.65715743291539</v>
       </c>
       <c r="P3" t="n">
-        <v>25.3</v>
+        <v>37.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="R3" t="n">
-        <v>93</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>152</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14</v>
+      </c>
+      <c r="P4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44</v>
-      </c>
       <c r="Q4" t="n">
-        <v>11.38312417100181</v>
+        <v>8.583124171001877</v>
       </c>
       <c r="R4" t="n">
-        <v>82</v>
+        <v>21.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>60.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>211.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>191.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>178.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>165.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="G2" t="n">
-        <v>248.9319292929305</v>
+        <v>175.859</v>
       </c>
       <c r="H2" t="n">
-        <v>397.4319292929305</v>
+        <v>230.012</v>
       </c>
       <c r="I2" t="n">
-        <v>397.4319292929305</v>
+        <v>260.702</v>
       </c>
       <c r="J2" t="n">
-        <v>397.4319292929305</v>
+        <v>293.669</v>
       </c>
       <c r="K2" t="n">
-        <v>545.9319292929305</v>
+        <v>380.393</v>
       </c>
       <c r="L2" t="n">
-        <v>545.9319292929305</v>
+        <v>393.857</v>
       </c>
       <c r="M2" t="n">
-        <v>545.9319292929305</v>
+        <v>530.1799999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>545.9319292929305</v>
+        <v>538.7655555555568</v>
       </c>
       <c r="O2" t="n">
-        <v>545.9319292929305</v>
+        <v>544.7055555555555</v>
       </c>
       <c r="P2" t="n">
-        <v>545.9319292929305</v>
+        <v>646.5765555555568</v>
       </c>
       <c r="Q2" t="n">
-        <v>545.9319292929305</v>
+        <v>733.3005555555567</v>
       </c>
       <c r="R2" t="n">
-        <v>565.6329292929305</v>
+        <v>757.5555555555555</v>
       </c>
       <c r="S2" t="n">
-        <v>565.6329292929305</v>
+        <v>718.5656565656577</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>631.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>513.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>414.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>335.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>283.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>243.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>204.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>184.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="I3" t="n">
-        <v>141.7114848484852</v>
+        <v>171.008</v>
       </c>
       <c r="J3" t="n">
-        <v>207.0514848484852</v>
+        <v>182.888</v>
       </c>
       <c r="K3" t="n">
-        <v>294.1714848484852</v>
+        <v>198.728</v>
       </c>
       <c r="L3" t="n">
-        <v>303.0814848484852</v>
+        <v>368.018</v>
       </c>
       <c r="M3" t="n">
-        <v>303.0814848484852</v>
+        <v>387.917</v>
       </c>
       <c r="N3" t="n">
-        <v>303.0814848484852</v>
+        <v>387.917</v>
       </c>
       <c r="O3" t="n">
-        <v>310.0114848484852</v>
+        <v>402.4275858585863</v>
       </c>
       <c r="P3" t="n">
-        <v>335.0584848484853</v>
+        <v>439.5525858585863</v>
       </c>
       <c r="Q3" t="n">
-        <v>362.7784848484852</v>
+        <v>483.1125858585863</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>547.8585858585863</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>486.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>355.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>355.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>355.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>276.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>276.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>237.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>191.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>171.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="J4" t="n">
-        <v>201.18</v>
+        <v>170.81</v>
       </c>
       <c r="K4" t="n">
-        <v>205.14</v>
+        <v>178.73</v>
       </c>
       <c r="L4" t="n">
-        <v>212.07</v>
+        <v>192.59</v>
       </c>
       <c r="M4" t="n">
-        <v>212.07</v>
+        <v>192.59</v>
       </c>
       <c r="N4" t="n">
-        <v>219.99</v>
+        <v>343.0699999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>226.92</v>
+        <v>356.9299999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>270.48</v>
+        <v>364.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>281.7492929292918</v>
+        <v>373.3472929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>394.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>394.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>263.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>224.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>77.53427201306107</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>119.5</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3375,19 +3375,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,46 +3672,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.93079277624766</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>13.4</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>48.9</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.383124171001812</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,46 +3996,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
-        <v>12.8</v>
+        <v>19.2</v>
       </c>
       <c r="M2" t="n">
-        <v>14.4</v>
+        <v>21.6</v>
       </c>
       <c r="N2" t="n">
-        <v>16</v>
+        <v>15.67227833894634</v>
       </c>
       <c r="O2" t="n">
-        <v>22.2</v>
+        <v>20.4</v>
       </c>
       <c r="P2" t="n">
-        <v>20.6</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>10.2</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4091,25 +4091,25 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.657157432915394</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>60</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4.583124171001877</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>2.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -525,76 +525,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.933761861034569</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80569.87555147437</v>
+        <v>80459.32568105296</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>71400</v>
       </c>
       <c r="D2" t="n">
-        <v>15404.58112947659</v>
+        <v>16023.52285784605</v>
       </c>
       <c r="E2" t="n">
-        <v>1100</v>
+        <v>2235</v>
       </c>
       <c r="F2" t="n">
-        <v>37900.94379158544</v>
+        <v>-5459.275781640405</v>
       </c>
     </row>
   </sheetData>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>35.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>44.5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>53.4</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>44.5</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>26.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>53.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>34.9444750535652</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>17.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>1.783124171002611</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>71.2</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>62.3</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.1</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>54.7</v>
+        <v>29.6</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>20.3</v>
       </c>
       <c r="J2" t="n">
-        <v>33.3</v>
+        <v>21.4</v>
       </c>
       <c r="K2" t="n">
-        <v>87.59999999999999</v>
+        <v>43.3</v>
       </c>
       <c r="L2" t="n">
-        <v>13.6</v>
+        <v>57.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>137.7</v>
+        <v>63.7</v>
       </c>
       <c r="N2" t="n">
-        <v>8.672278338946343</v>
+        <v>70</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>55.90000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>102.9</v>
+        <v>49.59999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>87.59999999999999</v>
+        <v>43.23376186103457</v>
       </c>
       <c r="R2" t="n">
-        <v>24.5</v>
+        <v>17.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>53.4</v>
       </c>
       <c r="K3" t="n">
-        <v>16</v>
+        <v>71.2</v>
       </c>
       <c r="L3" t="n">
-        <v>171</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>20.1</v>
+        <v>65.60000000000036</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>45.2</v>
       </c>
       <c r="O3" t="n">
-        <v>14.65715743291539</v>
+        <v>62.3</v>
       </c>
       <c r="P3" t="n">
-        <v>37.5</v>
+        <v>6.344475053564832</v>
       </c>
       <c r="Q3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>1.783124171002611</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>62.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>47.80000000000037</v>
       </c>
       <c r="N4" t="n">
-        <v>152</v>
+        <v>71.2</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>62.3</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.583124171001877</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>25.5</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>38.6</v>
+        <v>11.3</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>90.5</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.4</v>
+        <v>44.99999999999928</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.0909090909106</v>
+        <v>154.5656565656565</v>
       </c>
       <c r="C2" t="n">
-        <v>191.3939393939416</v>
+        <v>141.9393939393939</v>
       </c>
       <c r="D2" t="n">
-        <v>178.2626262626277</v>
+        <v>135.8787878787878</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1313131313139</v>
+        <v>129.8181818181818</v>
       </c>
       <c r="F2" t="n">
-        <v>152</v>
+        <v>123.7575757575757</v>
       </c>
       <c r="G2" t="n">
-        <v>175.859</v>
+        <v>140.5875757575757</v>
       </c>
       <c r="H2" t="n">
-        <v>230.012</v>
+        <v>169.8915757575757</v>
       </c>
       <c r="I2" t="n">
-        <v>260.702</v>
+        <v>189.9885757575757</v>
       </c>
       <c r="J2" t="n">
-        <v>293.669</v>
+        <v>211.1745757575757</v>
       </c>
       <c r="K2" t="n">
-        <v>380.393</v>
+        <v>254.0415757575757</v>
       </c>
       <c r="L2" t="n">
-        <v>393.857</v>
+        <v>310.8675757575757</v>
       </c>
       <c r="M2" t="n">
-        <v>530.1799999999999</v>
+        <v>373.9305757575757</v>
       </c>
       <c r="N2" t="n">
-        <v>538.7655555555568</v>
+        <v>443.2305757575757</v>
       </c>
       <c r="O2" t="n">
-        <v>544.7055555555555</v>
+        <v>498.5715757575757</v>
       </c>
       <c r="P2" t="n">
-        <v>646.5765555555568</v>
+        <v>547.6755757575758</v>
       </c>
       <c r="Q2" t="n">
-        <v>733.3005555555567</v>
+        <v>590.477</v>
       </c>
       <c r="R2" t="n">
-        <v>757.5555555555555</v>
+        <v>608</v>
       </c>
       <c r="S2" t="n">
-        <v>718.5656565656577</v>
+        <v>596.5858585858585</v>
       </c>
       <c r="T2" t="n">
-        <v>631.2929292929305</v>
+        <v>532.3434343434343</v>
       </c>
       <c r="U2" t="n">
-        <v>513.1111111111111</v>
+        <v>421.2323232323232</v>
       </c>
       <c r="V2" t="n">
-        <v>414.6262626262645</v>
+        <v>329.8181818181818</v>
       </c>
       <c r="W2" t="n">
-        <v>335.838383838385</v>
+        <v>258.10101010101</v>
       </c>
       <c r="X2" t="n">
-        <v>283.3131313131332</v>
+        <v>212.6464646464646</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.9191919191934</v>
+        <v>180.3232323232322</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>204.5252525252518</v>
+        <v>174.1252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>184.8282828282828</v>
+        <v>154.4282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="H3" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="I3" t="n">
-        <v>171.008</v>
+        <v>121.6</v>
       </c>
       <c r="J3" t="n">
-        <v>182.888</v>
+        <v>174.466</v>
       </c>
       <c r="K3" t="n">
-        <v>198.728</v>
+        <v>244.954</v>
       </c>
       <c r="L3" t="n">
-        <v>368.018</v>
+        <v>324.253</v>
       </c>
       <c r="M3" t="n">
-        <v>387.917</v>
+        <v>389.1970000000004</v>
       </c>
       <c r="N3" t="n">
-        <v>387.917</v>
+        <v>433.9450000000004</v>
       </c>
       <c r="O3" t="n">
-        <v>402.4275858585863</v>
+        <v>495.6220000000004</v>
       </c>
       <c r="P3" t="n">
-        <v>439.5525858585863</v>
+        <v>501.9030303030296</v>
       </c>
       <c r="Q3" t="n">
-        <v>483.1125858585863</v>
+        <v>501.9030303030296</v>
       </c>
       <c r="R3" t="n">
-        <v>547.8585858585863</v>
+        <v>501.9030303030296</v>
       </c>
       <c r="S3" t="n">
-        <v>486.8484848484852</v>
+        <v>456.4484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>355.5353535353539</v>
+        <v>325.1353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>355.5353535353539</v>
+        <v>325.1353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>355.5353535353539</v>
+        <v>325.1353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>276.7474747474744</v>
+        <v>246.3474747474748</v>
       </c>
       <c r="X3" t="n">
-        <v>276.7474747474744</v>
+        <v>246.3474747474748</v>
       </c>
       <c r="Y3" t="n">
-        <v>237.3535353535346</v>
+        <v>206.9535353535354</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>191.3939393939379</v>
+        <v>160.9939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>171.6969696969689</v>
+        <v>141.2969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="H4" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="I4" t="n">
-        <v>152</v>
+        <v>121.6</v>
       </c>
       <c r="J4" t="n">
-        <v>170.81</v>
+        <v>121.6</v>
       </c>
       <c r="K4" t="n">
-        <v>178.73</v>
+        <v>123.3652929292926</v>
       </c>
       <c r="L4" t="n">
-        <v>192.59</v>
+        <v>185.0422929292926</v>
       </c>
       <c r="M4" t="n">
-        <v>192.59</v>
+        <v>232.364292929293</v>
       </c>
       <c r="N4" t="n">
-        <v>343.0699999999999</v>
+        <v>302.852292929293</v>
       </c>
       <c r="O4" t="n">
-        <v>356.9299999999999</v>
+        <v>364.529292929293</v>
       </c>
       <c r="P4" t="n">
-        <v>364.85</v>
+        <v>364.529292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>373.3472929292918</v>
+        <v>364.529292929293</v>
       </c>
       <c r="R4" t="n">
-        <v>394.9292929292918</v>
+        <v>364.529292929293</v>
       </c>
       <c r="S4" t="n">
-        <v>394.9292929292918</v>
+        <v>364.529292929293</v>
       </c>
       <c r="T4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>263.6161616161605</v>
+        <v>233.2161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.2222222222222</v>
+        <v>193.8222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3375,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,43 +3996,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15.67227833894634</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4091,22 +4091,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.657157432915394</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.583124171001877</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673714</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>1770</v>
       </c>
       <c r="F2" t="n">
-        <v>38945.6536412876</v>
+        <v>38945.65364128757</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1912,10 +2162,10 @@
         <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>3.583124171001832</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>150</v>
       </c>
       <c r="I2" t="n">
         <v>2.8</v>
@@ -2064,7 +2314,7 @@
         <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>132.7342720130611</v>
       </c>
       <c r="L2" t="n">
         <v>33.6</v>
@@ -2082,16 +2332,16 @@
         <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.0342720130611</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
         <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.43079277624771</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>41.03079277624771</v>
       </c>
       <c r="K3" t="n">
         <v>54.4</v>
@@ -2236,10 +2486,10 @@
         <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>3.583124171001832</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2950,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>125.742</v>
       </c>
       <c r="H2" t="n">
-        <v>197.715</v>
+        <v>274.242</v>
       </c>
       <c r="I2" t="n">
-        <v>200.487</v>
+        <v>277.014</v>
       </c>
       <c r="J2" t="n">
-        <v>202.269</v>
+        <v>278.796</v>
       </c>
       <c r="K2" t="n">
-        <v>223.653</v>
+        <v>410.2029292929304</v>
       </c>
       <c r="L2" t="n">
-        <v>256.917</v>
+        <v>443.4669292929304</v>
       </c>
       <c r="M2" t="n">
-        <v>294.3389999999999</v>
+        <v>480.8889292929304</v>
       </c>
       <c r="N2" t="n">
-        <v>335.9189999999999</v>
+        <v>522.4689292929304</v>
       </c>
       <c r="O2" t="n">
-        <v>365.6189999999999</v>
+        <v>552.1689292929304</v>
       </c>
       <c r="P2" t="n">
-        <v>391.1609999999999</v>
+        <v>577.7109292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>521.8749292929305</v>
+        <v>599.0949292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>522.0729292929304</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>554.1489292929305</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,7 +3033,7 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>147.1564848484852</v>
+        <v>146.928</v>
       </c>
       <c r="J3" t="n">
         <v>187.5484848484852</v>
@@ -2884,7 +3134,7 @@
         <v>352.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.9292929292918</v>
+        <v>356.1972929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3351,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>135.8</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3360,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>111.1342720130611</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3378,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.4342720130611</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3431,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2307927762477106</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.2307927762477107</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3672,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3708,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3996,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4032,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>4.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,22 +523,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>61.21000000177904</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>78.23956890008294</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -552,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>61.20999999999015</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -561,40 +559,40 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>61.20999999883006</v>
       </c>
     </row>
     <row r="3">
@@ -650,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.958973499689947e-09</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -662,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.426139240934326e-09</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -685,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>83.11200000243153</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>61.20999999966162</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -736,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>122.3999999958671</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -745,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>2.298520485055633e-09</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80569.87555147064</v>
-      </c>
-      <c r="C2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15404.58112946613</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>37900.94379158944</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1184,10 +792,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -1200,10 +808,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>10175</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,10 +824,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>190</v>
+        <v>5100</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1180.307</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1107.012</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1034.097</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-969.519</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-951.7809999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-860.4450000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-800.33</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-626.674</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-475.0890000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-557.5020000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-635.9839999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-749.8339999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-939.596</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1108.238</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1133.384</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1129.487</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1113.042</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1114.107</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1258.162</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1344.14</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1313.225</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1265.283</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1109.331</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1037.202</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-859.33</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-792.75</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-726.55</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-613.51</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-366.446</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>-58.97199999999994</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>65.21800000000002</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>217.6279999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>350.3919999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>290.0649999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>262.4699999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>195.198</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>6.798000000000087</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-260.3340000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-508.3139999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-818.224</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-912.1140000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-927.4299999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1078.2</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1169.55</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1145.35</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1102.78</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-952.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-884.1</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1121.215</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1058.664</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-995.15</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-941.3159999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-849.542</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-482.0410000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-256.9169999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-56.32499999999996</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>98.24500000000005</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>40.88400000000007</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>3.066999999999894</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>-84.38800000000005</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-309.386</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-647.0280000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-997.5459999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1232.898</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1225.854</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1234.977</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1388.433</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1481.126</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1459.612</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1418.385</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1270.491</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1203.734</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1486,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>681.7250000000296</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1912.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3154.25</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>3927.55</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4039.47500000012</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>3561.25</v>
       </c>
       <c r="M2" t="n">
-        <v>8.999999999999996</v>
+        <v>2676.025000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>1607.65</v>
       </c>
       <c r="O2" t="n">
-        <v>8.999999999999996</v>
+        <v>641.025000000015</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>20.35</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2049,49 +1557,49 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>305.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>5898</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>5898</v>
       </c>
       <c r="M3" t="n">
-        <v>9.999999999999996</v>
+        <v>1815.884705640322</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>600.3250000000149</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>40.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2129,43 +1637,43 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>457.8750000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2696.374999998967</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2182.973484848912</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>5950.920000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>6078.6</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>980.2800000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>1190.620000000805</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>3581.6</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1010.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2296,40 +1804,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-2.025626599788666e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.787754231969816e-09</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1112.569999999648</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2527.576000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3452.461000000122</v>
       </c>
       <c r="K2" t="n">
-        <v>16.47227833702924</v>
+        <v>3543.183000000112</v>
       </c>
       <c r="L2" t="n">
-        <v>115.2000000004657</v>
+        <v>2925.265999996522</v>
       </c>
       <c r="M2" t="n">
-        <v>129.6000000004657</v>
+        <v>1926.191</v>
       </c>
       <c r="N2" t="n">
-        <v>144</v>
+        <v>729.2640000000465</v>
       </c>
       <c r="O2" t="n">
-        <v>110.4000000004424</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>96.00000000020955</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2385,25 +1893,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>60.45715742767516</v>
+        <v>5100</v>
       </c>
       <c r="L3" t="n">
-        <v>162</v>
+        <v>5100</v>
       </c>
       <c r="M3" t="n">
-        <v>150.4000000040047</v>
+        <v>1059.884705640322</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2412,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6</v>
+        <v>1.958973499689947e-09</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2424,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.218868419528008e-07</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -2456,40 +1964,40 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2018.494999998966</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1358.933484848912</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5100</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>5100</v>
       </c>
       <c r="L4" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>251.5</v>
       </c>
       <c r="N4" t="n">
-        <v>88.38312417107409</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>2655.919999999805</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1057.907000000006</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>984.6120000000059</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>911.697000000006</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>847.1189997998599</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>890.5710000000087</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>100.4804310998874</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>344.8129999999851</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>990.6340000000055</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1007.087000000006</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>990.642000000006</v>
       </c>
       <c r="S2" t="n">
-        <v>38.59999999974389</v>
+        <v>991.7070000000058</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>1135.761999999657</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000466</v>
+        <v>1221.739999999948</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1190.825</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995343</v>
+        <v>1265.282999999114</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>986.931000000006</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>975.9920000011697</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>859.3299999995891</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004657</v>
+        <v>792.75</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995343</v>
+        <v>726.55</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>308.26</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>217.8989999990381</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>871.4140000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>60.39999999881256</v>
+        <v>927.4299999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1078.2</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1169.55</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1145.35000011946</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1102.78</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>952.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>884.1</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1121.215</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>1058.664</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>912.0379999975685</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>880.106000000008</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>391.6669999999708</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1232.898000000268</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1225.854</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1234.977</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1388.433</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1358.726000004133</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1459.612</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1418.385</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1270.490999997702</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1203.734</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.0909090908174</v>
+        <v>7852.201445550462</v>
       </c>
       <c r="C2" t="n">
-        <v>191.3939393938007</v>
+        <v>6857.643869792881</v>
       </c>
       <c r="D2" t="n">
-        <v>178.2626262625346</v>
+        <v>5936.737809186814</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1313131312685</v>
+        <v>5081.062051615181</v>
       </c>
       <c r="F2" t="n">
-        <v>152.0000000000024</v>
+        <v>4181.495384949381</v>
       </c>
       <c r="G2" t="n">
-        <v>152.0000000000024</v>
+        <v>4080</v>
       </c>
       <c r="H2" t="n">
-        <v>152.0000000000024</v>
+        <v>5181.444299999652</v>
       </c>
       <c r="I2" t="n">
-        <v>152.0000000000024</v>
+        <v>7683.744539999774</v>
       </c>
       <c r="J2" t="n">
-        <v>152.0000000000024</v>
+        <v>11101.68092999989</v>
       </c>
       <c r="K2" t="n">
-        <v>168.3075555536614</v>
+        <v>14609.43210000001</v>
       </c>
       <c r="L2" t="n">
-        <v>282.3555555541224</v>
+        <v>17505.44543999656</v>
       </c>
       <c r="M2" t="n">
-        <v>410.6595555545834</v>
+        <v>19412.37452999657</v>
       </c>
       <c r="N2" t="n">
-        <v>553.2195555545834</v>
+        <v>20134.34588999662</v>
       </c>
       <c r="O2" t="n">
-        <v>662.5155555550214</v>
+        <v>19786.04993040068</v>
       </c>
       <c r="P2" t="n">
-        <v>757.5555555552288</v>
+        <v>18785.40952636027</v>
       </c>
       <c r="Q2" t="n">
-        <v>757.5555555552288</v>
+        <v>17768.1499303992</v>
       </c>
       <c r="R2" t="n">
-        <v>757.5555555552288</v>
+        <v>16767.50144555071</v>
       </c>
       <c r="S2" t="n">
-        <v>718.5656565655884</v>
+        <v>15765.77720312646</v>
       </c>
       <c r="T2" t="n">
-        <v>631.2929292928612</v>
+        <v>14618.54285969212</v>
       </c>
       <c r="U2" t="n">
-        <v>513.111111110996</v>
+        <v>13384.46205161136</v>
       </c>
       <c r="V2" t="n">
-        <v>414.6262626261475</v>
+        <v>12181.60851625783</v>
       </c>
       <c r="W2" t="n">
-        <v>335.8383838383157</v>
+        <v>10903.54487989509</v>
       </c>
       <c r="X2" t="n">
-        <v>283.3131313130162</v>
+        <v>9906.644879895082</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.9191919191003</v>
+        <v>8920.794374843397</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>416.6666666679487</v>
+        <v>5926.020202020617</v>
       </c>
       <c r="C3" t="n">
-        <v>396.9696969709319</v>
+        <v>5125.262626263041</v>
       </c>
       <c r="D3" t="n">
-        <v>383.8383838396658</v>
+        <v>4391.373737374152</v>
       </c>
       <c r="E3" t="n">
-        <v>383.8383838396658</v>
+        <v>4080</v>
       </c>
       <c r="F3" t="n">
-        <v>383.8383838396658</v>
+        <v>4080</v>
       </c>
       <c r="G3" t="n">
-        <v>364.1414141426491</v>
+        <v>4080</v>
       </c>
       <c r="H3" t="n">
-        <v>364.1414141426491</v>
+        <v>4080</v>
       </c>
       <c r="I3" t="n">
-        <v>372.061414142649</v>
+        <v>4080</v>
       </c>
       <c r="J3" t="n">
-        <v>378.0014141426491</v>
+        <v>4080</v>
       </c>
       <c r="K3" t="n">
-        <v>437.8539999960474</v>
+        <v>9129</v>
       </c>
       <c r="L3" t="n">
-        <v>598.2339999960475</v>
+        <v>14178</v>
       </c>
       <c r="M3" t="n">
-        <v>747.1300000000122</v>
+        <v>15227.28585858392</v>
       </c>
       <c r="N3" t="n">
-        <v>747.130000000012</v>
+        <v>15227.28585858392</v>
       </c>
       <c r="O3" t="n">
-        <v>754.0600000000121</v>
+        <v>15227.28585858392</v>
       </c>
       <c r="P3" t="n">
-        <v>754.0600000000121</v>
+        <v>15227.28585858392</v>
       </c>
       <c r="Q3" t="n">
-        <v>754.0600000000121</v>
+        <v>15007.18585858395</v>
       </c>
       <c r="R3" t="n">
-        <v>760.0000000000003</v>
+        <v>14126.9696969697</v>
       </c>
       <c r="S3" t="n">
-        <v>698.9898989911105</v>
+        <v>13190.17171717172</v>
       </c>
       <c r="T3" t="n">
-        <v>567.6767676779791</v>
+        <v>12101.08080808081</v>
       </c>
       <c r="U3" t="n">
-        <v>567.6767676779791</v>
+        <v>10919.71717171717</v>
       </c>
       <c r="V3" t="n">
-        <v>567.6767676779791</v>
+        <v>9762.797979797981</v>
       </c>
       <c r="W3" t="n">
-        <v>488.8888888901474</v>
+        <v>8648.878787878788</v>
       </c>
       <c r="X3" t="n">
-        <v>488.8888888901474</v>
+        <v>7687.060606060606</v>
       </c>
       <c r="Y3" t="n">
-        <v>449.4949494962315</v>
+        <v>6794.030303030303</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>556.4646464646819</v>
+        <v>7355.227272725151</v>
       </c>
       <c r="C4" t="n">
-        <v>536.7676767676652</v>
+        <v>6285.869696967575</v>
       </c>
       <c r="D4" t="n">
-        <v>536.7676767676652</v>
+        <v>5364.619191919526</v>
       </c>
       <c r="E4" t="n">
-        <v>536.7676767676652</v>
+        <v>4475.623232323232</v>
       </c>
       <c r="F4" t="n">
-        <v>536.7676767676652</v>
+        <v>4080</v>
       </c>
       <c r="G4" t="n">
-        <v>517.0707070706485</v>
+        <v>6078.310049998977</v>
       </c>
       <c r="H4" t="n">
-        <v>517.0707070706485</v>
+        <v>6078.310049998977</v>
       </c>
       <c r="I4" t="n">
-        <v>517.0707070706485</v>
+        <v>7423.654199999401</v>
       </c>
       <c r="J4" t="n">
-        <v>519.0507070706485</v>
+        <v>12472.6541999994</v>
       </c>
       <c r="K4" t="n">
-        <v>526.9707070706486</v>
+        <v>17521.6541999994</v>
       </c>
       <c r="L4" t="n">
-        <v>651.7107070706485</v>
+        <v>17521.6541999994</v>
       </c>
       <c r="M4" t="n">
-        <v>651.7107070706486</v>
+        <v>17770.6392000002</v>
       </c>
       <c r="N4" t="n">
-        <v>739.210000000012</v>
+        <v>17770.6392000002</v>
       </c>
       <c r="O4" t="n">
-        <v>746.140000000012</v>
+        <v>20400</v>
       </c>
       <c r="P4" t="n">
-        <v>754.060000000012</v>
+        <v>20400</v>
       </c>
       <c r="Q4" t="n">
-        <v>758.020000000012</v>
+        <v>19154.64848484821</v>
       </c>
       <c r="R4" t="n">
-        <v>760.0000000000003</v>
+        <v>17916.41212121185</v>
       </c>
       <c r="S4" t="n">
-        <v>760.0000000000003</v>
+        <v>16668.96060606034</v>
       </c>
       <c r="T4" t="n">
-        <v>628.686868686869</v>
+        <v>15266.50303030276</v>
       </c>
       <c r="U4" t="n">
-        <v>628.6868686868806</v>
+        <v>13894.05252524808</v>
       </c>
       <c r="V4" t="n">
-        <v>628.6868686868806</v>
+        <v>12419.69696969253</v>
       </c>
       <c r="W4" t="n">
-        <v>628.6868686868806</v>
+        <v>10986.98484848041</v>
       </c>
       <c r="X4" t="n">
-        <v>628.6868686868806</v>
+        <v>9703.660606058485</v>
       </c>
       <c r="Y4" t="n">
-        <v>589.2929292929648</v>
+        <v>8487.767676765556</v>
       </c>
     </row>
     <row r="5">
@@ -6832,40 +6340,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2</v>
+        <v>138.9080000000007</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>295.2400000000015</v>
       </c>
       <c r="K2" t="n">
-        <v>35.47227833702924</v>
+        <v>331.2980000000015</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8000000002794</v>
+        <v>255.0680000000016</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4000000002561</v>
+        <v>110.5940000000008</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.60000000020955</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6921,13 +6429,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.45715742767516</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>139.4000000037486</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -6936,13 +6444,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -6995,19 +6503,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>80.38312417107409</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7156,31 +6664,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.021000000000003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.29399999958832</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>47.53800000000003</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62.11100000000005</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>56.46800000000007</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>40.05200000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>20.21600000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.280000000000001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -7192,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.400000000256114</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7263,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>5.510000000000002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4000000011874363</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7340,10 +6848,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3320743.458106034</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>82200</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>421235.5293374188</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>182205</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.20000000018626</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.60000000020955</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.40000000025611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>24.40000000025611</v>
-      </c>
-      <c r="N3" t="n">
-        <v>18</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>1563805.332648732</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 5.xlsx
+++ b/model/Output Files/Year 5.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,22 +524,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>61.21000000177904</v>
+        <v>111</v>
       </c>
       <c r="G2" t="n">
-        <v>78.23956890008294</v>
+        <v>111</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -550,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>61.20999999999015</v>
+        <v>56.99247300544919</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -559,40 +560,40 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>61.20999999999185</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="P2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="R2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="S2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="T2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="U2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="V2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="X2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="Y2" t="n">
-        <v>61.20999999883006</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -648,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.958973499689947e-09</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -660,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.426139240934326e-09</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -677,19 +678,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>83.11200000243153</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>61.20999999966162</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -734,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>122.3999999958671</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>59.90299999877425</v>
       </c>
       <c r="X4" t="n">
-        <v>2.298520485055633e-09</v>
+        <v>55.5100000001128</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>55.50999999999476</v>
       </c>
     </row>
   </sheetData>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384624.011138561</v>
+      </c>
+      <c r="C2" t="n">
+        <v>74000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>430987.5085335714</v>
+      </c>
+      <c r="E2" t="n">
+        <v>182885</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1600390.760664844</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -792,10 +859,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -808,10 +875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10175</v>
+        <v>10206</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -827,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5100</v>
+        <v>5219</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1147,76 +1264,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1180.307</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-1107.012</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-1034.097</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-969.519</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-951.7809999999999</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-860.4450000000001</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-800.33</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-626.674</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-475.0890000000001</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-557.5020000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-635.9839999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-749.8339999999999</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-939.596</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1108.238</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
-        <v>-1133.384</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1129.487</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
-        <v>-1113.042</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-1114.107</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-1258.162</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-1344.14</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-1313.225</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-1265.283</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-1109.331</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1037.202</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1224,76 +1341,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-859.33</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-792.75</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-726.55</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-613.51</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-366.446</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-58.97199999999994</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>65.21800000000002</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>217.6279999999999</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>350.3919999999999</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>290.0649999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>262.4699999999999</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>195.198</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>6.798000000000087</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-260.3340000000001</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-508.3139999999999</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-818.224</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
-        <v>-912.1140000000001</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-927.4299999999999</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-1078.2</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>-1169.55</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>-1145.35</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-1102.78</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>-952.2</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-884.1</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1301,76 +1418,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1121.215</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-1058.664</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>-995.15</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-941.3159999999999</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-849.542</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-482.0410000000001</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-256.9169999999999</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>-56.32499999999996</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>98.24500000000005</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>40.88400000000007</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>3.066999999999894</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>-84.38800000000005</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-309.386</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-647.0280000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-997.5459999999999</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1232.898</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
-        <v>-1225.854</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>-1234.977</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-1388.433</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>-1481.126</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>-1459.612</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>-1418.385</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>-1270.491</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1203.734</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>681.7250000000296</v>
+        <v>683.8020000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1912.9</v>
+        <v>1918.728000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>3154.25</v>
+        <v>3163.860000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>3927.55</v>
+        <v>3939.516000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>4039.47500000012</v>
+        <v>4051.782000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>3561.25</v>
+        <v>3572.1</v>
       </c>
       <c r="M2" t="n">
-        <v>2676.025000000001</v>
+        <v>2684.178000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>1607.65</v>
+        <v>1612.548</v>
       </c>
       <c r="O2" t="n">
-        <v>641.025000000015</v>
+        <v>642.9780000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>20.35</v>
+        <v>20.412</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,16 +1674,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>305.25</v>
+        <v>306.1800000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>462</v>
+        <v>1592.135999997252</v>
       </c>
       <c r="G3" t="n">
-        <v>504</v>
+        <v>3133.252306698541</v>
       </c>
       <c r="H3" t="n">
-        <v>630</v>
+        <v>5123.412000000001</v>
       </c>
       <c r="I3" t="n">
         <v>646.8</v>
@@ -1575,28 +1692,28 @@
         <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>5898</v>
+        <v>798</v>
       </c>
       <c r="L3" t="n">
-        <v>5898</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>1815.884705640322</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
         <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>739.2</v>
+        <v>4072.194000000001</v>
       </c>
       <c r="P3" t="n">
         <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>600.3250000000149</v>
+        <v>602.1540000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>40.7</v>
+        <v>40.82400000000001</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,37 +1754,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>457.8750000000001</v>
+        <v>459.2700000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>2696.374999998967</v>
+        <v>677.8800000009469</v>
       </c>
       <c r="H4" t="n">
         <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>2182.973484848912</v>
+        <v>2036.534949495597</v>
       </c>
       <c r="J4" t="n">
-        <v>5950.920000000001</v>
+        <v>6069.920000000076</v>
       </c>
       <c r="K4" t="n">
-        <v>6078.6</v>
+        <v>6197.6</v>
       </c>
       <c r="L4" t="n">
-        <v>980.2800000000001</v>
+        <v>6199.280000000129</v>
       </c>
       <c r="M4" t="n">
-        <v>1190.620000000805</v>
+        <v>939.1200000000001</v>
       </c>
       <c r="N4" t="n">
         <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>3581.6</v>
+        <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>1010.2</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1804,40 +1921,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.025626599788666e-07</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.787754231969816e-09</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1112.569999999648</v>
+        <v>1165.948000000505</v>
       </c>
       <c r="I2" t="n">
-        <v>2527.576000000001</v>
+        <v>2635.19</v>
       </c>
       <c r="J2" t="n">
-        <v>3452.461000000122</v>
+        <v>3595.936000000802</v>
       </c>
       <c r="K2" t="n">
-        <v>3543.183000000112</v>
+        <v>3688.469473006237</v>
       </c>
       <c r="L2" t="n">
-        <v>2925.265999996522</v>
+        <v>3055.229999999417</v>
       </c>
       <c r="M2" t="n">
-        <v>1926.191</v>
+        <v>2016.55300000429</v>
       </c>
       <c r="N2" t="n">
-        <v>729.2640000000465</v>
+        <v>710.8380000000002</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.066211098445845e-08</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1852,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.90706955995082e-09</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>5.972500885813358e-09</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1884,13 +2001,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1130.135999997252</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2629.252306697933</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4493.411999999938</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1899,19 +2016,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1059.884705640322</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3332.994000000001</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1920,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.958973499689947e-09</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1932,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.218868419528008e-07</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-3.085006028413773e-08</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1964,31 +2081,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2018.494999998966</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1358.933484848912</v>
+        <v>1212.494949495815</v>
       </c>
       <c r="J4" t="n">
-        <v>5100</v>
+        <v>5219</v>
       </c>
       <c r="K4" t="n">
-        <v>5100</v>
+        <v>5219</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5219</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2655.919999999805</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1057.907000000006</v>
+        <v>1100.51</v>
       </c>
       <c r="C2" t="n">
-        <v>984.6120000000059</v>
+        <v>1025.26</v>
       </c>
       <c r="D2" t="n">
-        <v>911.697000000006</v>
+        <v>950.8100000000035</v>
       </c>
       <c r="E2" t="n">
-        <v>847.1189997998599</v>
+        <v>1031.169999999971</v>
       </c>
       <c r="F2" t="n">
-        <v>890.5710000000087</v>
+        <v>866.6300000000007</v>
       </c>
       <c r="G2" t="n">
-        <v>100.4804310998874</v>
+        <v>64.09299999842005</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>344.8129999999851</v>
+        <v>357.4669999968366</v>
       </c>
       <c r="P2" t="n">
-        <v>990.6340000000055</v>
+        <v>1140.478000090662</v>
       </c>
       <c r="Q2" t="n">
-        <v>1007.087000000006</v>
+        <v>1080.310000000012</v>
       </c>
       <c r="R2" t="n">
-        <v>990.642000000006</v>
+        <v>1030.460000000013</v>
       </c>
       <c r="S2" t="n">
-        <v>991.7070000000058</v>
+        <v>1033.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1135.761999999657</v>
+        <v>1178.76</v>
       </c>
       <c r="U2" t="n">
-        <v>1221.739999999948</v>
+        <v>1268.200000002849</v>
       </c>
       <c r="V2" t="n">
-        <v>1190.825</v>
+        <v>1235.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1265.282999999114</v>
+        <v>1186.990000005914</v>
       </c>
       <c r="X2" t="n">
-        <v>986.931000000006</v>
+        <v>1029.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>975.9920000011697</v>
+        <v>953.4599999999998</v>
       </c>
     </row>
     <row r="3">
@@ -2196,16 +2313,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>859.3299999995891</v>
+        <v>879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>792.75</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>726.55</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>308.26</v>
+        <v>345.4699999962259</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2241,31 +2358,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>217.8989999990381</v>
+        <v>245.1309999979603</v>
       </c>
       <c r="R3" t="n">
-        <v>871.4140000000001</v>
+        <v>891.7360000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>927.4299999999999</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1078.2</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1169.55</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1145.35000011946</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>1102.78</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>952.2</v>
+        <v>977.4999999724499</v>
       </c>
       <c r="Y3" t="n">
-        <v>884.1</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2273,19 +2390,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1121.215</v>
+        <v>1039.35</v>
       </c>
       <c r="C4" t="n">
-        <v>1058.664</v>
+        <v>1086.220000000004</v>
       </c>
       <c r="D4" t="n">
-        <v>912.0379999975685</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>880.106000000008</v>
+        <v>1001.979999999995</v>
       </c>
       <c r="F4" t="n">
-        <v>391.6669999999708</v>
+        <v>285.9649999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2318,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1232.898000000268</v>
+        <v>1298.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1225.854</v>
+        <v>1258.220000000128</v>
       </c>
       <c r="S4" t="n">
-        <v>1234.977</v>
+        <v>1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>1388.433</v>
+        <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>1358.726000004133</v>
+        <v>1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1459.612</v>
+        <v>1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>1418.385</v>
+        <v>1396.547000001226</v>
       </c>
       <c r="X4" t="n">
-        <v>1270.490999997702</v>
+        <v>1251.420000000005</v>
       </c>
       <c r="Y4" t="n">
-        <v>1203.734</v>
+        <v>1181.309999999889</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7852.201445550462</v>
+        <v>8154.257575758285</v>
       </c>
       <c r="C2" t="n">
-        <v>6857.643869792881</v>
+        <v>7118.641414142124</v>
       </c>
       <c r="D2" t="n">
-        <v>5936.737809186814</v>
+        <v>6158.227272727982</v>
       </c>
       <c r="E2" t="n">
-        <v>5081.062051615181</v>
+        <v>5116.641414142124</v>
       </c>
       <c r="F2" t="n">
-        <v>4181.495384949381</v>
+        <v>4241.257575758285</v>
       </c>
       <c r="G2" t="n">
-        <v>4080</v>
+        <v>4176.517171719477</v>
       </c>
       <c r="H2" t="n">
-        <v>5181.444299999652</v>
+        <v>5330.805691719979</v>
       </c>
       <c r="I2" t="n">
-        <v>7683.744539999774</v>
+        <v>7939.643791719978</v>
       </c>
       <c r="J2" t="n">
-        <v>11101.68092999989</v>
+        <v>11499.62043172077</v>
       </c>
       <c r="K2" t="n">
-        <v>14609.43210000001</v>
+        <v>15151.20520999695</v>
       </c>
       <c r="L2" t="n">
-        <v>17505.44543999656</v>
+        <v>18175.88290999637</v>
       </c>
       <c r="M2" t="n">
-        <v>19412.37452999657</v>
+        <v>20172.27038000062</v>
       </c>
       <c r="N2" t="n">
-        <v>20134.34588999662</v>
+        <v>20876</v>
       </c>
       <c r="O2" t="n">
-        <v>19786.04993040068</v>
+        <v>20514.92222222477</v>
       </c>
       <c r="P2" t="n">
-        <v>18785.40952636027</v>
+        <v>19362.92424242497</v>
       </c>
       <c r="Q2" t="n">
-        <v>17768.1499303992</v>
+        <v>18271.70202020275</v>
       </c>
       <c r="R2" t="n">
-        <v>16767.50144555071</v>
+        <v>17230.83333333333</v>
       </c>
       <c r="S2" t="n">
-        <v>15765.77720312646</v>
+        <v>16187.38888888889</v>
       </c>
       <c r="T2" t="n">
-        <v>14618.54285969212</v>
+        <v>14996.72222222222</v>
       </c>
       <c r="U2" t="n">
-        <v>13384.46205161136</v>
+        <v>13715.71212121283</v>
       </c>
       <c r="V2" t="n">
-        <v>12181.60851625783</v>
+        <v>12467.47979798057</v>
       </c>
       <c r="W2" t="n">
-        <v>10903.54487989509</v>
+        <v>11268.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9906.644879895082</v>
+        <v>10228.97474747546</v>
       </c>
       <c r="Y2" t="n">
-        <v>8920.794374843397</v>
+        <v>9265.883838383943</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5926.020202020617</v>
+        <v>11325.22525252721</v>
       </c>
       <c r="C3" t="n">
-        <v>5125.262626263041</v>
+        <v>10506.0333333353</v>
       </c>
       <c r="D3" t="n">
-        <v>4391.373737374152</v>
+        <v>9755.023232325195</v>
       </c>
       <c r="E3" t="n">
-        <v>4080</v>
+        <v>9406.063636371728</v>
       </c>
       <c r="F3" t="n">
-        <v>4080</v>
+        <v>10524.89827636901</v>
       </c>
       <c r="G3" t="n">
-        <v>4080</v>
+        <v>13127.85806000058</v>
       </c>
       <c r="H3" t="n">
-        <v>4080</v>
+        <v>17576.33594000058</v>
       </c>
       <c r="I3" t="n">
-        <v>4080</v>
+        <v>17576.33594000058</v>
       </c>
       <c r="J3" t="n">
-        <v>4080</v>
+        <v>17576.33594000058</v>
       </c>
       <c r="K3" t="n">
-        <v>9129</v>
+        <v>17576.33594000118</v>
       </c>
       <c r="L3" t="n">
-        <v>14178</v>
+        <v>17576.33594000058</v>
       </c>
       <c r="M3" t="n">
-        <v>15227.28585858392</v>
+        <v>17576.33594000058</v>
       </c>
       <c r="N3" t="n">
-        <v>15227.28585858392</v>
+        <v>17576.3359399999</v>
       </c>
       <c r="O3" t="n">
-        <v>15227.28585858392</v>
+        <v>20876</v>
       </c>
       <c r="P3" t="n">
-        <v>15227.28585858392</v>
+        <v>20876</v>
       </c>
       <c r="Q3" t="n">
-        <v>15007.18585858395</v>
+        <v>20628.39292929489</v>
       </c>
       <c r="R3" t="n">
-        <v>14126.9696969697</v>
+        <v>19727.64949495146</v>
       </c>
       <c r="S3" t="n">
-        <v>13190.17171717172</v>
+        <v>18767.24545454742</v>
       </c>
       <c r="T3" t="n">
-        <v>12101.08080808081</v>
+        <v>17652.59898990095</v>
       </c>
       <c r="U3" t="n">
-        <v>10919.71717171717</v>
+        <v>16441.99292929489</v>
       </c>
       <c r="V3" t="n">
-        <v>9762.797979797981</v>
+        <v>15257.14444444641</v>
       </c>
       <c r="W3" t="n">
-        <v>8648.878787878788</v>
+        <v>14115.93232323366</v>
       </c>
       <c r="X3" t="n">
-        <v>7687.060606060606</v>
+        <v>13128.55858586055</v>
       </c>
       <c r="Y3" t="n">
-        <v>6794.030303030303</v>
+        <v>12213.40707070903</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7355.227272725151</v>
+        <v>7605.16464646277</v>
       </c>
       <c r="C4" t="n">
-        <v>6285.869696967575</v>
+        <v>6507.972727271483</v>
       </c>
       <c r="D4" t="n">
-        <v>5364.619191919526</v>
+        <v>5476.154545453301</v>
       </c>
       <c r="E4" t="n">
-        <v>4475.623232323232</v>
+        <v>4464.053535352296</v>
       </c>
       <c r="F4" t="n">
-        <v>4080</v>
+        <v>4175.2</v>
       </c>
       <c r="G4" t="n">
-        <v>6078.310049998977</v>
+        <v>4175.2</v>
       </c>
       <c r="H4" t="n">
-        <v>6078.310049998977</v>
+        <v>4175.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7423.654199999401</v>
+        <v>5375.570000000354</v>
       </c>
       <c r="J4" t="n">
-        <v>12472.6541999994</v>
+        <v>10542.37999999974</v>
       </c>
       <c r="K4" t="n">
-        <v>17521.6541999994</v>
+        <v>15709.18999999987</v>
       </c>
       <c r="L4" t="n">
-        <v>17521.6541999994</v>
+        <v>20876</v>
       </c>
       <c r="M4" t="n">
-        <v>17770.6392000002</v>
+        <v>20876</v>
       </c>
       <c r="N4" t="n">
-        <v>17770.6392000002</v>
+        <v>20876</v>
       </c>
       <c r="O4" t="n">
-        <v>20400</v>
+        <v>20876</v>
       </c>
       <c r="P4" t="n">
-        <v>20400</v>
+        <v>20876</v>
       </c>
       <c r="Q4" t="n">
-        <v>19154.64848484821</v>
+        <v>19564.54545454546</v>
       </c>
       <c r="R4" t="n">
-        <v>17916.41212121185</v>
+        <v>18293.61616161616</v>
       </c>
       <c r="S4" t="n">
-        <v>16668.96060606034</v>
+        <v>17011.68686868687</v>
       </c>
       <c r="T4" t="n">
-        <v>15266.50303030276</v>
+        <v>15572.70707070707</v>
       </c>
       <c r="U4" t="n">
-        <v>13894.05252524808</v>
+        <v>14036.36363636364</v>
       </c>
       <c r="V4" t="n">
-        <v>12419.69696969253</v>
+        <v>12522.9696969697</v>
       </c>
       <c r="W4" t="n">
-        <v>10986.98484848041</v>
+        <v>11112.31616161492</v>
       </c>
       <c r="X4" t="n">
-        <v>9703.660606058485</v>
+        <v>9848.255555554311</v>
       </c>
       <c r="Y4" t="n">
-        <v>8487.767676765556</v>
+        <v>8655.013131311884</v>
       </c>
     </row>
     <row r="5">
@@ -6346,19 +6463,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>138.9080000000007</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
-        <v>295.2400000000015</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>331.2980000000015</v>
+        <v>349.095000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>255.0680000000016</v>
+        <v>268.7699999991792</v>
       </c>
       <c r="M2" t="n">
-        <v>110.5940000000008</v>
+        <v>116.5350000022445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6664,31 +6781,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.021000000000003</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>23.29399999958832</v>
+        <v>49.04000000050291</v>
       </c>
       <c r="I2" t="n">
-        <v>47.53800000000003</v>
+        <v>100.079999998839</v>
       </c>
       <c r="J2" t="n">
-        <v>62.11100000000005</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>64.59999999999999</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>56.46800000000007</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>40.05200000000001</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>20.21600000000001</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>2.280000000000001</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -6735,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.95</v>
+        <v>2.00000000606633</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6771,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.510000000000002</v>
+        <v>11.60000000203956</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3320743.458106034</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>82200</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>421235.5293374188</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>182205</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1563805.332648732</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
